--- a/KM5c_data/KM5c.xlsx
+++ b/KM5c_data/KM5c.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ33"/>
+  <dimension ref="A1:AR33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +565,15 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
@@ -654,13 +659,13 @@
         </is>
       </c>
       <c r="AD2">
-        <v>2.52997059</v>
+        <v>1.45</v>
       </c>
       <c r="AE2">
-        <v>0.97002941</v>
+        <v>2.046592968040042</v>
       </c>
       <c r="AF2">
-        <v>0.62907717</v>
+        <v>1.705640728040043</v>
       </c>
       <c r="AI2">
         <v>-4.984848484848484</v>
@@ -751,13 +756,13 @@
         </is>
       </c>
       <c r="AD3">
-        <v>7.159050169</v>
+        <v>6.78</v>
       </c>
       <c r="AE3">
-        <v>6.680949831</v>
+        <v>7.059325807359484</v>
       </c>
       <c r="AF3">
-        <v>6.022494720999999</v>
+        <v>6.400870697359484</v>
       </c>
       <c r="AI3">
         <v>1.718787878787879</v>
@@ -848,13 +853,13 @@
         </is>
       </c>
       <c r="AD4">
-        <v>10.81863884</v>
+        <v>10.67</v>
       </c>
       <c r="AE4">
-        <v>6.14936116</v>
+        <v>6.299139543321397</v>
       </c>
       <c r="AF4">
-        <v>5.793049720000001</v>
+        <v>5.942828103321398</v>
       </c>
       <c r="AI4">
         <v>-1.183515151515149</v>
@@ -989,19 +994,19 @@
         </is>
       </c>
       <c r="AD5">
-        <v>17.86345383</v>
+        <v>17.76</v>
       </c>
       <c r="AE5">
-        <v>3.735296169999998</v>
+        <v>3.835014970567492</v>
       </c>
       <c r="AF5">
-        <v>2.992291059999999</v>
+        <v>3.092009860567494</v>
       </c>
       <c r="AG5">
-        <v>4.376546169999997</v>
+        <v>4.476264970567492</v>
       </c>
       <c r="AH5">
-        <v>9.126966169999999</v>
+        <v>9.226684970567494</v>
       </c>
       <c r="AI5">
         <v>4.507840909090909</v>
@@ -1027,10 +1032,13 @@
         <v>17.09090909090909</v>
       </c>
       <c r="AP5">
-        <v>3.6385</v>
+        <v>18.6015</v>
       </c>
       <c r="AQ5">
-        <v>8.388920000000001</v>
+        <v>3.638499999999997</v>
+      </c>
+      <c r="AR5">
+        <v>8.388919999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1098,13 +1106,13 @@
         </is>
       </c>
       <c r="AD6">
-        <v>17.86345383</v>
+        <v>17.76</v>
       </c>
       <c r="AE6">
-        <v>2.711546169999998</v>
+        <v>2.811264970567493</v>
       </c>
       <c r="AF6">
-        <v>2.468863929999998</v>
+        <v>2.568582730567492</v>
       </c>
       <c r="AI6">
         <v>3.484090909090909</v>
@@ -1128,9 +1136,6 @@
       </c>
       <c r="AO6">
         <v>17.09090909090909</v>
-      </c>
-      <c r="AP6">
-        <v>-4.122027273</v>
       </c>
     </row>
     <row r="7">
@@ -1213,16 +1218,22 @@
         </is>
       </c>
       <c r="AD7">
-        <v>22.04325411</v>
+        <v>22.22</v>
       </c>
       <c r="AG7">
-        <v>-1.615981380000001</v>
+        <v>-1.791507281679124</v>
       </c>
       <c r="AH7">
-        <v>3.11420953</v>
+        <v>2.938683627411777</v>
+      </c>
+      <c r="AP7">
+        <v>24.5493</v>
       </c>
       <c r="AQ7">
-        <v>0.6081636364</v>
+        <v>-4.12202727</v>
+      </c>
+      <c r="AR7">
+        <v>0.6081636400000008</v>
       </c>
     </row>
     <row r="8">
@@ -1300,13 +1311,13 @@
         </is>
       </c>
       <c r="AD8">
-        <v>27.57989666</v>
+        <v>27.59</v>
       </c>
       <c r="AG8">
-        <v>-3.066563330000001</v>
+        <v>-3.07169423421227</v>
       </c>
       <c r="AH8">
-        <v>-3.539629989999998</v>
+        <v>-3.54476090087887</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
@@ -1326,10 +1337,13 @@
         <v>25.42424242424242</v>
       </c>
       <c r="AP8">
-        <v>-3.020066667</v>
+        <v>27.5334</v>
       </c>
       <c r="AQ8">
-        <v>-3.493133333</v>
+        <v>-3.020066670000002</v>
+      </c>
+      <c r="AR8">
+        <v>-3.493133329999999</v>
       </c>
     </row>
     <row r="9">
@@ -1397,13 +1411,13 @@
         </is>
       </c>
       <c r="AD9">
-        <v>25.29316151</v>
+        <v>25.31</v>
       </c>
       <c r="AE9">
-        <v>1.44808849</v>
+        <v>1.428633694118922</v>
       </c>
       <c r="AF9">
-        <v>2.710414629999999</v>
+        <v>2.690959834118921</v>
       </c>
       <c r="AI9">
         <v>1.226098484848489</v>
@@ -1489,13 +1503,13 @@
         </is>
       </c>
       <c r="AD10">
-        <v>18.47981249</v>
+        <v>18.45</v>
       </c>
       <c r="AE10">
-        <v>8.406551149999999</v>
+        <v>8.433762016464843</v>
       </c>
       <c r="AF10">
-        <v>8.739324230000001</v>
+        <v>8.766535096464846</v>
       </c>
       <c r="AI10">
         <v>7.553030306666667</v>
@@ -1583,13 +1597,13 @@
         </is>
       </c>
       <c r="AD11">
-        <v>19.02968948</v>
+        <v>19.22</v>
       </c>
       <c r="AE11">
-        <v>6.755310520000002</v>
+        <v>6.568540089925129</v>
       </c>
       <c r="AF11">
-        <v>6.542236290000002</v>
+        <v>6.355465859925129</v>
       </c>
       <c r="AI11">
         <v>9.875909090909094</v>
@@ -1714,19 +1728,19 @@
         </is>
       </c>
       <c r="AD12">
-        <v>13.43059804</v>
+        <v>13.35</v>
       </c>
       <c r="AE12">
-        <v>4.313846399999999</v>
+        <v>4.399195263974608</v>
       </c>
       <c r="AF12">
-        <v>3.622043120000001</v>
+        <v>3.70739198397461</v>
       </c>
       <c r="AG12">
-        <v>-1.770598039999999</v>
+        <v>-1.68524917602539</v>
       </c>
       <c r="AH12">
-        <v>-0.9720153099999997</v>
+        <v>-0.8866664487526901</v>
       </c>
       <c r="AI12">
         <v>1.138383833939397</v>
@@ -1752,10 +1766,13 @@
         <v>16.6060606060606</v>
       </c>
       <c r="AP12">
+        <v>13.8771</v>
+      </c>
+      <c r="AQ12">
         <v>-2.2171</v>
       </c>
-      <c r="AQ12">
-        <v>-1.418517273</v>
+      <c r="AR12">
+        <v>-1.418517270000001</v>
       </c>
     </row>
     <row r="13">
@@ -1801,7 +1818,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Van der Weijst et al. (in prep)</t>
+          <t>van der Weijst and Peterse (Unpublished data)</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -1810,16 +1827,10 @@
         </is>
       </c>
       <c r="AD13">
-        <v>27.0771524</v>
+        <v>27.31</v>
       </c>
       <c r="AG13">
-        <v>0.5228476000000022</v>
-      </c>
-      <c r="AP13">
-        <v>0.5127</v>
-      </c>
-      <c r="AQ13">
-        <v>-3.611825</v>
+        <v>0.2875847710503443</v>
       </c>
     </row>
     <row r="14">
@@ -1860,7 +1871,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Van der Weijst et al. (in prep)</t>
+          <t>van der Weijst and Peterse (Unpublished data)</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -1869,13 +1880,13 @@
         </is>
       </c>
       <c r="AD14">
-        <v>25.04551062</v>
+        <v>25.3</v>
       </c>
       <c r="AE14">
-        <v>2.87448938</v>
+        <v>2.621301235622827</v>
       </c>
       <c r="AF14">
-        <v>3.791653789999998</v>
+        <v>3.538465645622825</v>
       </c>
     </row>
     <row r="15">
@@ -1931,6 +1942,9 @@
           <t>https://doi.org/10.1038/srep39842</t>
         </is>
       </c>
+      <c r="W15">
+        <v>24.789288925</v>
+      </c>
       <c r="X15">
         <v>26.0532</v>
       </c>
@@ -1950,16 +1964,22 @@
         </is>
       </c>
       <c r="AD15">
-        <v>20.43029746</v>
+        <v>20.74</v>
+      </c>
+      <c r="AG15">
+        <v>4.049772560796445</v>
       </c>
       <c r="AH15">
-        <v>5.622902540000002</v>
+        <v>5.313683635796444</v>
       </c>
       <c r="AP15">
+        <v>22.0667</v>
+      </c>
+      <c r="AQ15">
         <v>2.722588925</v>
       </c>
-      <c r="AQ15">
-        <v>3.9865</v>
+      <c r="AR15">
+        <v>3.986499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2027,13 +2047,13 @@
         </is>
       </c>
       <c r="AD16">
-        <v>18.0662202</v>
+        <v>16.09</v>
       </c>
       <c r="AE16">
-        <v>6.233779800000001</v>
+        <v>8.211365169949005</v>
       </c>
       <c r="AF16">
-        <v>5.660454609999999</v>
+        <v>7.638039979949003</v>
       </c>
       <c r="AI16">
         <v>5.148484848484848</v>
@@ -2124,13 +2144,13 @@
         </is>
       </c>
       <c r="AD17">
-        <v>18.05159186</v>
+        <v>16.51</v>
       </c>
       <c r="AE17">
-        <v>7.91507481</v>
+        <v>9.45864292054253</v>
       </c>
       <c r="AF17">
-        <v>7.784458100000002</v>
+        <v>9.328026210542532</v>
       </c>
       <c r="AI17">
         <v>7.845454548787878</v>
@@ -2221,13 +2241,13 @@
         </is>
       </c>
       <c r="AD18">
-        <v>16.41070606</v>
+        <v>16.25</v>
       </c>
       <c r="AE18">
-        <v>7.889293940000002</v>
+        <v>8.049847157796222</v>
       </c>
       <c r="AF18">
-        <v>7.331660930000002</v>
+        <v>7.492214147796222</v>
       </c>
       <c r="AI18">
         <v>7.027272727272731</v>
@@ -2251,9 +2271,6 @@
       </c>
       <c r="AO18">
         <v>17.27272727272727</v>
-      </c>
-      <c r="AP18">
-        <v>-1.44473301</v>
       </c>
     </row>
     <row r="19">
@@ -2321,13 +2338,13 @@
         </is>
       </c>
       <c r="AD19">
-        <v>17.3431432</v>
+        <v>16.93</v>
       </c>
       <c r="AE19">
-        <v>3.09986486</v>
+        <v>3.513918789302302</v>
       </c>
       <c r="AF19">
-        <v>2.23655003</v>
+        <v>2.650603959302302</v>
       </c>
       <c r="AI19">
         <v>2.049068666060609</v>
@@ -2447,19 +2464,19 @@
         </is>
       </c>
       <c r="AD20">
-        <v>28.06290215</v>
+        <v>28.44</v>
       </c>
       <c r="AE20">
-        <v>0.8220978500000022</v>
+        <v>0.4449956936306414</v>
       </c>
       <c r="AF20">
-        <v>2.488990340000001</v>
+        <v>2.11188818363064</v>
       </c>
       <c r="AG20">
-        <v>-0.3570688199999985</v>
+        <v>-0.7341709730360613</v>
       </c>
       <c r="AH20">
-        <v>-0.9313854799999994</v>
+        <v>-1.308487639702662</v>
       </c>
       <c r="AI20">
         <v>1.248636363636368</v>
@@ -2485,7 +2502,13 @@
         <v>27.63636363636363</v>
       </c>
       <c r="AP20">
-        <v>0.07923333333</v>
+        <v>27.6266</v>
+      </c>
+      <c r="AQ20">
+        <v>0.07923333000000099</v>
+      </c>
+      <c r="AR20">
+        <v>-0.4950833299999999</v>
       </c>
     </row>
     <row r="21">
@@ -2563,19 +2586,22 @@
         </is>
       </c>
       <c r="AD21">
-        <v>27.38148114</v>
+        <v>27.73</v>
       </c>
       <c r="AG21">
-        <v>-3.34814781</v>
+        <v>-3.698869323730506</v>
       </c>
       <c r="AH21">
-        <v>-0.6144144700000034</v>
+        <v>-0.9651359903971048</v>
       </c>
       <c r="AP21">
-        <v>-1.153766667</v>
+        <v>25.1871</v>
       </c>
       <c r="AQ21">
-        <v>1.579966667</v>
+        <v>-1.15376667</v>
+      </c>
+      <c r="AR21">
+        <v>1.579966669999997</v>
       </c>
     </row>
     <row r="22">
@@ -2643,13 +2669,13 @@
         </is>
       </c>
       <c r="AD22">
-        <v>7.060546161</v>
+        <v>7.21</v>
       </c>
       <c r="AE22">
-        <v>3.021688008999999</v>
+        <v>2.867240799096137</v>
       </c>
       <c r="AF22">
-        <v>2.436270851999999</v>
+        <v>2.281823642096137</v>
       </c>
       <c r="AI22">
         <v>-1.372311284545454</v>
@@ -2729,10 +2755,10 @@
         </is>
       </c>
       <c r="W23">
-        <v>29.15115407</v>
+        <v>29.37598672</v>
       </c>
       <c r="X23">
-        <v>30.2779</v>
+        <v>30.8326333333333</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
@@ -2750,19 +2776,22 @@
         </is>
       </c>
       <c r="AD23">
-        <v>28.9528811</v>
+        <v>29.09</v>
       </c>
       <c r="AG23">
-        <v>0.1982729700000014</v>
+        <v>0.282595301542969</v>
       </c>
       <c r="AH23">
-        <v>1.3250189</v>
+        <v>1.739241914876267</v>
       </c>
       <c r="AP23">
-        <v>0.59168672</v>
+        <v>28.7843</v>
       </c>
       <c r="AQ23">
-        <v>2.048333333</v>
+        <v>0.5916867199999984</v>
+      </c>
+      <c r="AR23">
+        <v>2.048333333333296</v>
       </c>
     </row>
     <row r="24">
@@ -2830,13 +2859,13 @@
         </is>
       </c>
       <c r="AD24">
-        <v>23.43501257</v>
+        <v>23.78</v>
       </c>
       <c r="AE24">
-        <v>2.298320759999999</v>
+        <v>1.95582495462023</v>
       </c>
       <c r="AF24">
-        <v>2.067536669999999</v>
+        <v>1.72504086462023</v>
       </c>
       <c r="AI24">
         <v>2.733333330000001</v>
@@ -2927,13 +2956,13 @@
         </is>
       </c>
       <c r="AD25">
-        <v>26.28689391</v>
+        <v>26.36</v>
       </c>
       <c r="AE25">
-        <v>1.71310609</v>
+        <v>1.644249301486543</v>
       </c>
       <c r="AF25">
-        <v>3.36713271</v>
+        <v>3.298275921486542</v>
       </c>
       <c r="AI25">
         <v>1.636363636363637</v>
@@ -3034,19 +3063,22 @@
         </is>
       </c>
       <c r="AD26">
-        <v>27.18524928</v>
+        <v>27.01</v>
       </c>
       <c r="AG26">
-        <v>-0.1852492800000007</v>
+        <v>-0.01264004177517464</v>
       </c>
       <c r="AH26">
-        <v>-1.235549280000001</v>
+        <v>-1.062940041775175</v>
       </c>
       <c r="AP26">
-        <v>-0.2019</v>
+        <v>27.2019</v>
       </c>
       <c r="AQ26">
-        <v>-1.2522</v>
+        <v>-0.2018999999999984</v>
+      </c>
+      <c r="AR26">
+        <v>-1.252199999999998</v>
       </c>
     </row>
     <row r="27">
@@ -3124,18 +3156,21 @@
         </is>
       </c>
       <c r="AD27">
-        <v>27.77391984</v>
+        <v>27.68</v>
       </c>
       <c r="AG27">
-        <v>-1.273919840000001</v>
+        <v>-1.182914225260415</v>
       </c>
       <c r="AH27">
-        <v>-0.9887198400000017</v>
+        <v>-0.8977142252604153</v>
       </c>
       <c r="AP27">
+        <v>28.2441</v>
+      </c>
+      <c r="AQ27">
         <v>-1.7441</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>-1.4589</v>
       </c>
     </row>
@@ -3204,13 +3239,13 @@
         </is>
       </c>
       <c r="AD28">
-        <v>26.13841919</v>
+        <v>26.1</v>
       </c>
       <c r="AE28">
-        <v>1.77158081</v>
+        <v>1.813480360243055</v>
       </c>
       <c r="AF28">
-        <v>2.70084649</v>
+        <v>2.742746040243055</v>
       </c>
       <c r="AI28">
         <v>0.4251515151515193</v>
@@ -3311,19 +3346,22 @@
         </is>
       </c>
       <c r="AD29">
-        <v>25.38053361</v>
+        <v>25.31</v>
       </c>
       <c r="AG29">
-        <v>-0.9605336099999988</v>
+        <v>-0.8899967108832421</v>
       </c>
       <c r="AH29">
-        <v>0.3765663900000007</v>
+        <v>0.4471032891167575</v>
       </c>
       <c r="AP29">
-        <v>-1.3565</v>
+        <v>25.7765</v>
       </c>
       <c r="AQ29">
-        <v>-0.0194</v>
+        <v>-1.356499999999997</v>
+      </c>
+      <c r="AR29">
+        <v>-0.01939999999999742</v>
       </c>
     </row>
     <row r="30">
@@ -3391,13 +3429,13 @@
         </is>
       </c>
       <c r="AD30">
-        <v>15.0279146</v>
+        <v>15.49</v>
       </c>
       <c r="AE30">
-        <v>0.6160149399999995</v>
+        <v>0.1586896209733055</v>
       </c>
       <c r="AF30">
-        <v>-0.07771633000000122</v>
+        <v>-0.5350416490266952</v>
       </c>
       <c r="AI30">
         <v>0.6439295400000002</v>
@@ -3488,13 +3526,13 @@
         </is>
       </c>
       <c r="AD31">
-        <v>10.86766227</v>
+        <v>10.66</v>
       </c>
       <c r="AE31">
-        <v>1.71833773</v>
+        <v>1.921620837741427</v>
       </c>
       <c r="AF31">
-        <v>1.08615357</v>
+        <v>1.289436677741428</v>
       </c>
       <c r="AI31">
         <v>2.222363636363637</v>
@@ -3585,13 +3623,13 @@
         </is>
       </c>
       <c r="AD32">
-        <v>9.77013234</v>
+        <v>9.73</v>
       </c>
       <c r="AE32">
-        <v>4.09332017</v>
+        <v>4.129912928701174</v>
       </c>
       <c r="AF32">
-        <v>3.699774270000001</v>
+        <v>3.736367028701174</v>
       </c>
       <c r="AI32">
         <v>2.105876752424242</v>
@@ -3682,13 +3720,13 @@
         </is>
       </c>
       <c r="AD33">
-        <v>14.05183559</v>
+        <v>14.54</v>
       </c>
       <c r="AE33">
-        <v>5.59316441</v>
+        <v>5.109476860894096</v>
       </c>
       <c r="AF33">
-        <v>4.852751489999999</v>
+        <v>4.369063940894096</v>
       </c>
       <c r="AI33">
         <v>5.190454545454545</v>
